--- a/QA/testcases/Patient/Patient_Registration_Positive_Yes.xlsx
+++ b/QA/testcases/Patient/Patient_Registration_Positive_Yes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28680" windowHeight="13650"/>
+    <workbookView windowWidth="27465" windowHeight="13230"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -259,10 +259,13 @@
     <t>PATIENT_PH_NO</t>
   </si>
   <si>
+    <t>SelectByValue</t>
+  </si>
+  <si>
     <t>PATIENT_PH_NO_TYPE</t>
   </si>
   <si>
-    <t>Cell</t>
+    <t>Fax</t>
   </si>
   <si>
     <t>REG_CONFIRM_USER</t>
@@ -371,9 +374,6 @@
   </si>
   <si>
     <t>SelectByIndex</t>
-  </si>
-  <si>
-    <t>SelectByValue</t>
   </si>
   <si>
     <t>DeSelectCheckBox</t>
@@ -576,10 +576,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -617,11 +617,39 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -633,9 +661,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -650,39 +715,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -691,21 +727,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -724,13 +745,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -738,20 +752,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -762,43 +762,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -810,31 +870,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -846,55 +906,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -906,43 +936,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -974,23 +974,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1025,6 +1019,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1051,15 +1060,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1071,15 +1071,15 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1089,134 +1089,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1227,7 +1227,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1"/>
   </cellXfs>
@@ -1601,7 +1600,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -1878,7 +1877,7 @@
         <v>27</v>
       </c>
       <c r="D14" s="8"/>
-      <c r="E14" s="11">
+      <c r="E14" s="10">
         <v>2</v>
       </c>
     </row>
@@ -2109,7 +2108,7 @@
       <c r="D26" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="11" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2126,7 +2125,7 @@
       <c r="D27" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="10" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2169,16 +2168,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2192,13 +2191,13 @@
         <v>13</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2232,13 +2231,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2297,7 +2296,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2305,20 +2304,20 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -2329,20 +2328,20 @@
         <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
@@ -2350,47 +2349,47 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="3:3">
@@ -2400,12 +2399,12 @@
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -2415,55 +2414,55 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -2663,7 +2662,7 @@
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="3:3">
@@ -2686,7 +2685,7 @@
         <v>157</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="72" spans="3:3">
@@ -2699,7 +2698,7 @@
         <v>159</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="74" spans="3:3">
@@ -2727,7 +2726,7 @@
         <v>164</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="79" spans="3:4">
@@ -2735,7 +2734,7 @@
         <v>165</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="80" spans="3:3">

--- a/QA/testcases/Patient/Patient_Registration_Positive_Yes.xlsx
+++ b/QA/testcases/Patient/Patient_Registration_Positive_Yes.xlsx
@@ -259,121 +259,121 @@
     <t>PATIENT_PH_NO</t>
   </si>
   <si>
+    <t>PATIENT_PH_NO_TYPE</t>
+  </si>
+  <si>
+    <t>Fax</t>
+  </si>
+  <si>
+    <t>REG_CONFIRM_USER</t>
+  </si>
+  <si>
+    <t>Click Confirm user</t>
+  </si>
+  <si>
+    <t>Confirm user clicked</t>
+  </si>
+  <si>
+    <t>VerifyElementIsPresent</t>
+  </si>
+  <si>
+    <t>REGISTRATION_SUCCESS</t>
+  </si>
+  <si>
+    <t>Actions</t>
+  </si>
+  <si>
+    <t>GetUrl</t>
+  </si>
+  <si>
+    <t>ByName</t>
+  </si>
+  <si>
+    <t>NavigateToURL</t>
+  </si>
+  <si>
+    <t>ByOrName</t>
+  </si>
+  <si>
+    <t>WaitTime</t>
+  </si>
+  <si>
+    <t>ByLinkText</t>
+  </si>
+  <si>
+    <t>Maximize</t>
+  </si>
+  <si>
+    <t>ByTagName</t>
+  </si>
+  <si>
+    <t>ByClassName</t>
+  </si>
+  <si>
+    <t>ActionClick</t>
+  </si>
+  <si>
+    <t>ByCssSelector</t>
+  </si>
+  <si>
+    <t>JsClick</t>
+  </si>
+  <si>
+    <t>Normal Xpath</t>
+  </si>
+  <si>
+    <t>ByPartialLinkText</t>
+  </si>
+  <si>
+    <t>DoubleClick</t>
+  </si>
+  <si>
+    <t>Xpath</t>
+  </si>
+  <si>
+    <t>ClickAt</t>
+  </si>
+  <si>
+    <t>ClickAndHold</t>
+  </si>
+  <si>
+    <t>Clear</t>
+  </si>
+  <si>
+    <t>ClearAndType</t>
+  </si>
+  <si>
+    <t>ActionType</t>
+  </si>
+  <si>
+    <t>Submit</t>
+  </si>
+  <si>
+    <t>MouseOver</t>
+  </si>
+  <si>
+    <t>MouseOverAndClick</t>
+  </si>
+  <si>
+    <t>GetText</t>
+  </si>
+  <si>
+    <t>GetAttribute</t>
+  </si>
+  <si>
+    <t>GetCount</t>
+  </si>
+  <si>
+    <t>GetCurrentURL</t>
+  </si>
+  <si>
+    <t>SelectCheckBox</t>
+  </si>
+  <si>
+    <t>SelectByIndex</t>
+  </si>
+  <si>
     <t>SelectByValue</t>
-  </si>
-  <si>
-    <t>PATIENT_PH_NO_TYPE</t>
-  </si>
-  <si>
-    <t>Fax</t>
-  </si>
-  <si>
-    <t>REG_CONFIRM_USER</t>
-  </si>
-  <si>
-    <t>Click Confirm user</t>
-  </si>
-  <si>
-    <t>Confirm user clicked</t>
-  </si>
-  <si>
-    <t>VerifyElementIsPresent</t>
-  </si>
-  <si>
-    <t>REGISTRATION_SUCCESS</t>
-  </si>
-  <si>
-    <t>Actions</t>
-  </si>
-  <si>
-    <t>GetUrl</t>
-  </si>
-  <si>
-    <t>ByName</t>
-  </si>
-  <si>
-    <t>NavigateToURL</t>
-  </si>
-  <si>
-    <t>ByOrName</t>
-  </si>
-  <si>
-    <t>WaitTime</t>
-  </si>
-  <si>
-    <t>ByLinkText</t>
-  </si>
-  <si>
-    <t>Maximize</t>
-  </si>
-  <si>
-    <t>ByTagName</t>
-  </si>
-  <si>
-    <t>ByClassName</t>
-  </si>
-  <si>
-    <t>ActionClick</t>
-  </si>
-  <si>
-    <t>ByCssSelector</t>
-  </si>
-  <si>
-    <t>JsClick</t>
-  </si>
-  <si>
-    <t>Normal Xpath</t>
-  </si>
-  <si>
-    <t>ByPartialLinkText</t>
-  </si>
-  <si>
-    <t>DoubleClick</t>
-  </si>
-  <si>
-    <t>Xpath</t>
-  </si>
-  <si>
-    <t>ClickAt</t>
-  </si>
-  <si>
-    <t>ClickAndHold</t>
-  </si>
-  <si>
-    <t>Clear</t>
-  </si>
-  <si>
-    <t>ClearAndType</t>
-  </si>
-  <si>
-    <t>ActionType</t>
-  </si>
-  <si>
-    <t>Submit</t>
-  </si>
-  <si>
-    <t>MouseOver</t>
-  </si>
-  <si>
-    <t>MouseOverAndClick</t>
-  </si>
-  <si>
-    <t>GetText</t>
-  </si>
-  <si>
-    <t>GetAttribute</t>
-  </si>
-  <si>
-    <t>GetCount</t>
-  </si>
-  <si>
-    <t>GetCurrentURL</t>
-  </si>
-  <si>
-    <t>SelectCheckBox</t>
-  </si>
-  <si>
-    <t>SelectByIndex</t>
   </si>
   <si>
     <t>DeSelectCheckBox</t>
@@ -576,10 +576,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -626,30 +626,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -662,7 +649,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -684,8 +671,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -698,9 +716,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -715,43 +739,19 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -762,37 +762,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -804,115 +906,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -971,11 +971,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -985,6 +991,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1005,16 +1020,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1037,23 +1052,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1071,15 +1071,15 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1089,130 +1089,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1600,7 +1600,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2168,16 +2168,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="8" t="s">
+      <c r="E30" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2191,13 +2191,13 @@
         <v>13</v>
       </c>
       <c r="D31" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="G31" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2231,13 +2231,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2296,7 +2296,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2304,20 +2304,20 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" t="s">
         <v>87</v>
-      </c>
-      <c r="C3" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -2328,20 +2328,20 @@
         <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" t="s">
         <v>91</v>
-      </c>
-      <c r="C6" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
@@ -2349,47 +2349,47 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" t="s">
         <v>94</v>
-      </c>
-      <c r="C8" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" t="s">
         <v>99</v>
-      </c>
-      <c r="C10" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" t="s">
         <v>101</v>
-      </c>
-      <c r="C11" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="3:3">
@@ -2399,12 +2399,12 @@
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -2414,55 +2414,55 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>77</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -2662,7 +2662,7 @@
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="3:3">
@@ -2685,7 +2685,7 @@
         <v>157</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="72" spans="3:3">
@@ -2698,7 +2698,7 @@
         <v>159</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="74" spans="3:3">
@@ -2726,7 +2726,7 @@
         <v>164</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="79" spans="3:4">
@@ -2734,7 +2734,7 @@
         <v>165</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80" spans="3:3">
